--- a/medicine/Enfance/Fanny_Étienne-Artur/Fanny_Étienne-Artur.xlsx
+++ b/medicine/Enfance/Fanny_Étienne-Artur/Fanny_Étienne-Artur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fanny_%C3%89tienne-Artur</t>
+          <t>Fanny_Étienne-Artur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fanny Étienne-Artur (née en 1980) est une auteure et illustratrice française en littérature jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fanny_%C3%89tienne-Artur</t>
+          <t>Fanny_Étienne-Artur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fanny Étienne-Artur a bénéficié d'une formation  en illustration à l’École Estienne. Elle  travaille depuis dans les domaines de l'édition et de la télévision, notamment pour Arte[1]. Elle illustre pour différents support et publics : aussi bien jeunesse qu'adulte, et à la fois dans des BD indépendantes, des fanzines, ou des animations[2],[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fanny Étienne-Artur a bénéficié d'une formation  en illustration à l’École Estienne. Elle  travaille depuis dans les domaines de l'édition et de la télévision, notamment pour Arte. Elle illustre pour différents support et publics : aussi bien jeunesse qu'adulte, et à la fois dans des BD indépendantes, des fanzines, ou des animations,. 
 Ses techniques sont diverses : peinture, dessin, photographie, gravure...
-En 2018, elle a obtenu la Pépite Roman 2018 au Salon du livre et de la presse jeunesse, à Montreuil, pour L'Enfant de poussière  issu du Cycle de Syffe, sur lequel elle a travaillé avec l'auteur Patrick K. Dewdney[4],[5]. En 2019, le cycle complet remporte le Grand prix de l'Imaginaire.
+En 2018, elle a obtenu la Pépite Roman 2018 au Salon du livre et de la presse jeunesse, à Montreuil, pour L'Enfant de poussière  issu du Cycle de Syffe, sur lequel elle a travaillé avec l'auteur Patrick K. Dewdney,. En 2019, le cycle complet remporte le Grand prix de l'Imaginaire.
 </t>
         </is>
       </c>
